--- a/pred_ohlcv/54_21/2020-01-23 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ADA ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>-488348.9653064801</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-488348.9653064801</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-476400.0107064801</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-476427.1741064801</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-520192.6590064801</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-470512.2630064801</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-502562.2630064801</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-306359.4832064802</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-308697.1764064801</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-308697.1764064801</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-308685.4827064801</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-255856.9020064801</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-255741.4557064801</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-131709.1248064802</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-135003.2472064802</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-183528.5544064802</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-187762.4595064802</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-158487.0836064802</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-141387.0836064802</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-141387.0836064802</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-126927.0447064802</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-129675.1260064802</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-104269.7815064802</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-74947.93036145016</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-66193.82326145016</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-57464.21975402016</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-67877.21975402016</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-103295.5134540202</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-103295.5134540202</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-63702.34305402017</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-65070.88835402016</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-66439.43365402016</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-44594.01405402016</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-44594.01405402016</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-50092.17935402016</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-50076.82425402016</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-54795.80265402016</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-53774.92685402016</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-53774.92685402016</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-53774.92685402016</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-53774.92685402016</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-53764.92685402016</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-53764.92685402016</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-139436.7406540201</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-135175.8293540201</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-128214.0386540201</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-128204.5386540201</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-135143.3895540201</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-135202.1395540201</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-135260.8895540201</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-140463.2158540201</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-146820.3600540201</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-160420.3600540201</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>23059.14054597989</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>225315.9490459799</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>226315.9490459799</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-435398.6807240201</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-576644.3454240201</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1277410.70954461</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1277733.00954461</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1222434.97914461</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1224434.97914461</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1224434.97914461</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1324434.97914461</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1307247.96744461</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1308110.97934461</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1294833.91295082</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1297776.57405082</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1251315.38165082</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-983873.0372508203</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-637162.6339854903</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-730405.3778089404</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-729006.8173089403</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-732753.5228089404</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-731029.3228089404</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-725227.3874089405</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-738227.3874089405</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ADA ohlcv.xlsx
@@ -2264,7 +2264,7 @@
         <v>-131709.1248064802</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-135003.2472064802</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-183528.5544064802</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-187762.4595064802</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-158487.0836064802</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-141387.0836064802</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-141387.0836064802</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-126927.0447064802</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-129675.1260064802</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-104269.7815064802</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-74947.93036145016</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-66193.82326145016</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-57464.21975402016</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-67877.21975402016</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-103295.5134540202</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-103295.5134540202</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-63702.34305402017</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-44594.01405402016</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-44594.01405402016</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-50092.17935402016</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-133921.9074540201</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-83921.90745402014</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-139436.7406540201</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-135175.8293540201</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-128214.0386540201</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-128204.5386540201</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-135143.3895540201</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-135202.1395540201</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-135260.8895540201</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-140463.2158540201</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-146820.3600540201</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-160420.3600540201</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>23836.50194597989</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>23896.50194597989</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>23921.50194597989</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>23921.50194597989</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>23059.14054597989</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>225315.9490459799</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>226315.9490459799</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>216352.7562459799</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>215404.8283459799</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-435398.6807240201</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-576644.3454240201</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-657214.6394240201</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1239644.36934129</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1170101.07544129</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1170091.07544129</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1295703.91674295</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1277410.70954461</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1277733.00954461</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1222434.97914461</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1224434.97914461</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1224434.97914461</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1324434.97914461</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1307247.96744461</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1308110.97934461</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1294833.91295082</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1297776.57405082</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1251315.38165082</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1251315.38165082</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1248726.97715082</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1254936.45365082</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-983873.0372508203</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1023873.03725082</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-637162.6339854903</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-639052.0907854903</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-638951.4679089404</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-758407.6260089404</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
